--- a/backend/src/excel_handler/files/COME.xlsx
+++ b/backend/src/excel_handler/files/COME.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>23-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32072035.51</v>
+        <v>121629592.09</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1457819.8</v>
+        <v>3577340.94</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3910802.19</v>
+        <v>3915504.28</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2245424.23</v>
+        <v>2244382.44</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4554524.48</v>
+        <v>4546230.85</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2184053.37</v>
+        <v>1989497.96</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1234210.83</v>
+        <v>1232799.79</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2674728.77</v>
+        <v>2647816.32</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1312824.09</v>
+        <v>1264982.84</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540746.25</v>
+        <v>2538111.34</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1218756.99</v>
+        <v>1216354.28</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>927737.78</v>
+        <v>926026.78</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>915993.09</v>
+        <v>910421.29</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>962973.22</v>
+        <v>966853.5699999999</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>937984.92</v>
+        <v>938077.55</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1412677.7</v>
+        <v>1414524.18</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>411851.89</v>
+        <v>442666.52</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>449212.73</v>
+        <v>448565.39</v>
       </c>
     </row>
     <row r="20">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>30029.81</v>
+        <v>29183.73</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2986582.06</v>
+        <v>3622924.07</v>
       </c>
     </row>
     <row r="22">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>144641.11</v>
+        <v>144441.4</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>572504.47</v>
+        <v>572494.7</v>
       </c>
     </row>
     <row r="24">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>38527.53</v>
+        <v>38417.77</v>
       </c>
     </row>
     <row r="25">
@@ -677,7 +677,127 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>405248</v>
+        <v>404466.18</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Delta acciones</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>282136.5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Delta inter</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>156631.23</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Delta Latam</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>250744.8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Delta Recursos</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>5589983.15</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>4896975.94</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Lombardi</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>478623.77</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Superfondo</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>21972031.11</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Supergestion</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2770611.97</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Goal acciones plus</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>10382.71</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Ieb Value</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>38417.77</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>17732824.51</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Galileo</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>34995485.4</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/COME.xlsx
+++ b/backend/src/excel_handler/files/COME.xlsx
@@ -743,7 +743,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Superfondo</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B32" t="n">

--- a/backend/src/excel_handler/files/COME.xlsx
+++ b/backend/src/excel_handler/files/COME.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,38 +436,52 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23-12-2022</t>
+          <t>30-12-2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>121629592.09</v>
+        <v>4116906.22</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4113761.49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3577340.94</v>
+        <v>3721226.76</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3706367.68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3915504.28</v>
+        <v>447747.81</v>
+      </c>
+      <c r="C4" t="n">
+        <v>474972.72</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +491,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2244382.44</v>
+        <v>2248139.28</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2243785.92</v>
       </c>
     </row>
     <row r="6">
@@ -487,77 +504,101 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4546230.85</v>
+        <v>4559841.11</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4547640.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1989497.96</v>
+        <v>144205.14</v>
+      </c>
+      <c r="C7" t="n">
+        <v>143994.05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1232799.79</v>
+        <v>1563807.83</v>
+      </c>
+      <c r="C8" t="n">
+        <v>488559.75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Delta Latam</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2647816.32</v>
+        <v>250787.62</v>
+      </c>
+      <c r="C9" t="n">
+        <v>250911.45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Delta Recursos</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1264982.84</v>
+        <v>5589039.8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5591096.83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2538111.34</v>
+        <v>4878402.58</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4893135.39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Delta acciones</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1216354.28</v>
+        <v>280338.95</v>
+      </c>
+      <c r="C12" t="n">
+        <v>280180.48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Delta inter</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>926026.78</v>
+        <v>156706.56</v>
+      </c>
+      <c r="C13" t="n">
+        <v>156779.61</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +608,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>910421.29</v>
+        <v>914285.85</v>
+      </c>
+      <c r="C14" t="n">
+        <v>986827.87</v>
       </c>
     </row>
     <row r="15">
@@ -577,87 +621,112 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>966853.5699999999</v>
+        <v>968048.59</v>
+      </c>
+      <c r="C15" t="n">
+        <v>958088.42</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>938077.55</v>
+        <v>1223306.49</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1238457.64</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1414524.18</v>
+        <v>2653657.28</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2689607.22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>442666.52</v>
+          <t>Galileo</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="n">
+        <v>34978162.49</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>448565.39</v>
+        <v>572647.04</v>
+      </c>
+      <c r="C19" t="n">
+        <v>571901.09</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29183.73</v>
+        <v>10015.06</v>
+      </c>
+      <c r="C20" t="n">
+        <v>10033.82</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3622924.07</v>
+        <v>1215745.69</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1110944.81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>144441.4</v>
+        <v>2533862.98</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2532721.25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>572494.7</v>
+        <v>467093.29</v>
+      </c>
+      <c r="C23" t="n">
+        <v>467361.57</v>
       </c>
     </row>
     <row r="24">
@@ -667,137 +736,179 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>38417.77</v>
+        <v>38380.25</v>
+      </c>
+      <c r="C24" t="n">
+        <v>53505.18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Ieb Value</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>404466.18</v>
+        <v>38380.25</v>
+      </c>
+      <c r="C25" t="n">
+        <v>53505.18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>282136.5</v>
+        <v>479435.65</v>
+      </c>
+      <c r="C26" t="n">
+        <v>527821.1800000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Delta inter</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>156631.23</v>
+        <v>403808.19</v>
+      </c>
+      <c r="C27" t="n">
+        <v>404728.96</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Delta Latam</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>250744.8</v>
+        <v>940413.2</v>
+      </c>
+      <c r="C28" t="n">
+        <v>936650.5600000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5589983.15</v>
+        <v>1410705.27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1411757.85</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4896975.94</v>
+        <v>29285.52</v>
+      </c>
+      <c r="C30" t="n">
+        <v>29979.9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>478623.77</v>
+        <v>1219742.56</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1214413.21</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>21972031.11</v>
+        <v>924617.6899999999</v>
+      </c>
+      <c r="C32" t="n">
+        <v>925134.17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2770611.97</v>
+        <v>17750823.96</v>
+      </c>
+      <c r="C33" t="n">
+        <v>17717880.06</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>10382.71</v>
+        <v>24925391.9</v>
+      </c>
+      <c r="C34" t="n">
+        <v>24944544.43</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>38417.77</v>
+        <v>3906706.7</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4062543.59</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>17732824.51</v>
+        <v>2744954.64</v>
+      </c>
+      <c r="C36" t="n">
+        <v>3668169.31</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Galileo</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34995485.4</v>
+        <v>90583503.06999999</v>
+      </c>
+      <c r="C37" t="n">
+        <v>124717756.52</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/COME.xlsx
+++ b/backend/src/excel_handler/files/COME.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30-12-2022</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>06-01-2023</t>
         </is>
       </c>
@@ -448,467 +443,351 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4116906.22</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4113761.49</v>
+        <v>124664251.34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3721226.76</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3706367.68</v>
+        <v>3777704.59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>447747.81</v>
-      </c>
-      <c r="C4" t="n">
-        <v>474972.72</v>
+        <v>4113761.49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2248139.28</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2243785.92</v>
+        <v>3706367.68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4559841.11</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4547640.7</v>
+        <v>474972.72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>144205.14</v>
-      </c>
-      <c r="C7" t="n">
-        <v>143994.05</v>
+        <v>2243785.92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1563807.83</v>
-      </c>
-      <c r="C8" t="n">
-        <v>488559.75</v>
+        <v>4547640.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Delta Latam</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>250787.62</v>
-      </c>
-      <c r="C9" t="n">
-        <v>250911.45</v>
+        <v>143994.05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5589039.8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5591096.83</v>
+        <v>488559.75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4878402.58</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4893135.39</v>
+        <v>280180.48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>280338.95</v>
-      </c>
-      <c r="C12" t="n">
-        <v>280180.48</v>
+        <v>156779.61</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Delta inter</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156706.56</v>
-      </c>
-      <c r="C13" t="n">
-        <v>156779.61</v>
+        <v>250911.45</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>914285.85</v>
-      </c>
-      <c r="C14" t="n">
-        <v>986827.87</v>
+        <v>5591096.83</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>968048.59</v>
-      </c>
-      <c r="C15" t="n">
-        <v>958088.42</v>
+        <v>4893135.39</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1223306.49</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1238457.64</v>
+        <v>986827.87</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2653657.28</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2689607.22</v>
+        <v>958088.42</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Galileo</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="n">
-        <v>34978162.49</v>
+          <t>Fima Acciones</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1238457.64</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>572647.04</v>
-      </c>
-      <c r="C19" t="n">
-        <v>571901.09</v>
+        <v>2689607.22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Galileo Acciones</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>10015.06</v>
-      </c>
-      <c r="C20" t="n">
-        <v>10033.82</v>
+        <v>34978162.49</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1215745.69</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1110944.81</v>
+        <v>571901.09</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2533862.98</v>
-      </c>
-      <c r="C22" t="n">
-        <v>2532721.25</v>
+        <v>10033.82</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>467093.29</v>
-      </c>
-      <c r="C23" t="n">
-        <v>467361.57</v>
+        <v>1110944.81</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>38380.25</v>
-      </c>
-      <c r="C24" t="n">
-        <v>53505.18</v>
+        <v>2532721.25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>38380.25</v>
-      </c>
-      <c r="C25" t="n">
-        <v>53505.18</v>
+        <v>467361.57</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>479435.65</v>
-      </c>
-      <c r="C26" t="n">
-        <v>527821.1800000001</v>
+        <v>53505.18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>403808.19</v>
-      </c>
-      <c r="C27" t="n">
-        <v>404728.96</v>
+        <v>527821.1800000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>940413.2</v>
-      </c>
-      <c r="C28" t="n">
-        <v>936650.5600000001</v>
+        <v>404728.96</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1410705.27</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1411757.85</v>
+        <v>936650.5600000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>29285.52</v>
-      </c>
-      <c r="C30" t="n">
-        <v>29979.9</v>
+        <v>1411757.85</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1219742.56</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1214413.21</v>
+        <v>29979.9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>924617.6899999999</v>
-      </c>
-      <c r="C32" t="n">
-        <v>925134.17</v>
+        <v>1214413.21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>17750823.96</v>
-      </c>
-      <c r="C33" t="n">
-        <v>17717880.06</v>
+        <v>925134.17</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24925391.9</v>
-      </c>
-      <c r="C34" t="n">
-        <v>24944544.43</v>
+        <v>17717880.06</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3906706.7</v>
-      </c>
-      <c r="C35" t="n">
-        <v>4062543.59</v>
+        <v>24944544.43</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2744954.64</v>
-      </c>
-      <c r="C36" t="n">
-        <v>3668169.31</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>90583503.06999999</v>
-      </c>
-      <c r="C37" t="n">
-        <v>124717756.52</v>
+        <v>4062543.59</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/COME.xlsx
+++ b/backend/src/excel_handler/files/COME.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,355 +439,447 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>124664251.34</v>
+        <v>4113761.49</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4114314.89</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3777704.59</v>
+        <v>3706367.68</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3723756.54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4113761.49</v>
+        <v>474972.72</v>
+      </c>
+      <c r="C4" t="n">
+        <v>472594.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3706367.68</v>
+        <v>2243785.92</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2249629.99</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>474972.72</v>
+        <v>4547640.7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4562501.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2243785.92</v>
+        <v>143994.05</v>
+      </c>
+      <c r="C7" t="n">
+        <v>143868.09</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4547640.7</v>
+        <v>488559.75</v>
+      </c>
+      <c r="C8" t="n">
+        <v>482158.04</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>143994.05</v>
-      </c>
+        <v>280180.48</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>488559.75</v>
-      </c>
+        <v>156779.61</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>280180.48</v>
-      </c>
+        <v>250911.45</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>156779.61</v>
-      </c>
+        <v>5591096.83</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>250911.45</v>
-      </c>
+        <v>4893135.39</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos Naturales</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5591096.83</v>
-      </c>
+        <v>986827.87</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4893135.39</v>
-      </c>
+        <v>958088.42</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>986827.87</v>
-      </c>
+        <v>1238457.64</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>958088.42</v>
+        <v>2689607.22</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2746566.57</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Galileo Acciones</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1238457.64</v>
+        <v>34978162.49</v>
+      </c>
+      <c r="C18" t="n">
+        <v>35247486.51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2689607.22</v>
+        <v>571901.09</v>
+      </c>
+      <c r="C19" t="n">
+        <v>572507.54</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Galileo Acciones</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>34978162.49</v>
+        <v>10033.82</v>
+      </c>
+      <c r="C20" t="n">
+        <v>10218.84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>571901.09</v>
+        <v>1110944.81</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1114191.59</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10033.82</v>
+        <v>2532721.25</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2532858.42</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1110944.81</v>
+        <v>467361.57</v>
+      </c>
+      <c r="C23" t="n">
+        <v>488019.84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2532721.25</v>
+        <v>53505.18</v>
+      </c>
+      <c r="C24" t="n">
+        <v>53562.38</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>467361.57</v>
+        <v>527821.1800000001</v>
+      </c>
+      <c r="C25" t="n">
+        <v>577488.4300000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>53505.18</v>
+        <v>404728.96</v>
+      </c>
+      <c r="C26" t="n">
+        <v>405310.49</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>527821.1800000001</v>
-      </c>
+        <v>936650.5600000001</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>404728.96</v>
+        <v>1411757.85</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1407218.71</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>936650.5600000001</v>
+        <v>29979.9</v>
+      </c>
+      <c r="C29" t="n">
+        <v>29113.3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1411757.85</v>
+        <v>1214413.21</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1216155.65</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29979.9</v>
+        <v>925134.17</v>
+      </c>
+      <c r="C31" t="n">
+        <v>925542.4399999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1214413.21</v>
+        <v>17717880.06</v>
+      </c>
+      <c r="C32" t="n">
+        <v>17725718.49</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>925134.17</v>
+        <v>24944544.43</v>
+      </c>
+      <c r="C33" t="n">
+        <v>24951084.52</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>17717880.06</v>
+        <v>4062543.59</v>
+      </c>
+      <c r="C34" t="n">
+        <v>4051087.37</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>24944544.43</v>
+        <v>3777704.59</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4575123.11</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4062543.59</v>
+        <v>124664251.34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>109802954.64</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/COME.xlsx
+++ b/backend/src/excel_handler/files/COME.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,6 +462,9 @@
       <c r="C2" t="n">
         <v>4114314.89</v>
       </c>
+      <c r="D2" t="n">
+        <v>4576555.3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -470,6 +478,9 @@
       <c r="C3" t="n">
         <v>3723756.54</v>
       </c>
+      <c r="D3" t="n">
+        <v>3707703.88</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -483,6 +494,9 @@
       <c r="C4" t="n">
         <v>472594.6</v>
       </c>
+      <c r="D4" t="n">
+        <v>561024.89</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -496,6 +510,9 @@
       <c r="C5" t="n">
         <v>2249629.99</v>
       </c>
+      <c r="D5" t="n">
+        <v>2250267.2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -509,6 +526,9 @@
       <c r="C6" t="n">
         <v>4562501.4</v>
       </c>
+      <c r="D6" t="n">
+        <v>4547409.31</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -522,6 +542,9 @@
       <c r="C7" t="n">
         <v>143868.09</v>
       </c>
+      <c r="D7" t="n">
+        <v>144429.77</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -535,6 +558,9 @@
       <c r="C8" t="n">
         <v>482158.04</v>
       </c>
+      <c r="D8" t="n">
+        <v>228550.29</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -546,6 +572,9 @@
         <v>280180.48</v>
       </c>
       <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>279356.59</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -557,6 +586,9 @@
         <v>156779.61</v>
       </c>
       <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>156569.59</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -568,6 +600,9 @@
         <v>250911.45</v>
       </c>
       <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>250841.35</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -579,6 +614,9 @@
         <v>5591096.83</v>
       </c>
       <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>5448365.37</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -590,6 +628,9 @@
         <v>4893135.39</v>
       </c>
       <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>4821760.27</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -601,6 +642,9 @@
         <v>986827.87</v>
       </c>
       <c r="C14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>798198.02</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -612,6 +656,9 @@
         <v>958088.42</v>
       </c>
       <c r="C15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>788917.15</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -623,6 +670,9 @@
         <v>1238457.64</v>
       </c>
       <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>1224141.02</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -636,6 +686,9 @@
       <c r="C17" t="n">
         <v>2746566.57</v>
       </c>
+      <c r="D17" t="n">
+        <v>2788194.61</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -649,6 +702,9 @@
       <c r="C18" t="n">
         <v>35247486.51</v>
       </c>
+      <c r="D18" t="n">
+        <v>35249384.38</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -662,6 +718,9 @@
       <c r="C19" t="n">
         <v>572507.54</v>
       </c>
+      <c r="D19" t="n">
+        <v>503173.52</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -675,6 +734,9 @@
       <c r="C20" t="n">
         <v>10218.84</v>
       </c>
+      <c r="D20" t="n">
+        <v>10222.47</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -688,6 +750,9 @@
       <c r="C21" t="n">
         <v>1114191.59</v>
       </c>
+      <c r="D21" t="n">
+        <v>1115822.33</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -701,6 +766,9 @@
       <c r="C22" t="n">
         <v>2532858.42</v>
       </c>
+      <c r="D22" t="n">
+        <v>2234639.69</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -714,6 +782,9 @@
       <c r="C23" t="n">
         <v>488019.84</v>
       </c>
+      <c r="D23" t="n">
+        <v>626333.74</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -727,6 +798,9 @@
       <c r="C24" t="n">
         <v>53562.38</v>
       </c>
+      <c r="D24" t="n">
+        <v>61008.86</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -740,6 +814,9 @@
       <c r="C25" t="n">
         <v>577488.4300000001</v>
       </c>
+      <c r="D25" t="n">
+        <v>669025.4300000001</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -753,6 +830,9 @@
       <c r="C26" t="n">
         <v>405310.49</v>
       </c>
+      <c r="D26" t="n">
+        <v>403835.28</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -764,6 +844,9 @@
         <v>936650.5600000001</v>
       </c>
       <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>938374.1800000001</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -777,6 +860,9 @@
       <c r="C28" t="n">
         <v>1407218.71</v>
       </c>
+      <c r="D28" t="n">
+        <v>1407383.45</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -790,6 +876,9 @@
       <c r="C29" t="n">
         <v>29113.3</v>
       </c>
+      <c r="D29" t="n">
+        <v>31247.85</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -803,6 +892,9 @@
       <c r="C30" t="n">
         <v>1216155.65</v>
       </c>
+      <c r="D30" t="n">
+        <v>1213995.71</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -816,6 +908,9 @@
       <c r="C31" t="n">
         <v>925542.4399999999</v>
       </c>
+      <c r="D31" t="n">
+        <v>870614.04</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -829,6 +924,9 @@
       <c r="C32" t="n">
         <v>17725718.49</v>
       </c>
+      <c r="D32" t="n">
+        <v>17769651.84</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -842,6 +940,9 @@
       <c r="C33" t="n">
         <v>24951084.52</v>
       </c>
+      <c r="D33" t="n">
+        <v>24907279.91</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -855,6 +956,9 @@
       <c r="C34" t="n">
         <v>4051087.37</v>
       </c>
+      <c r="D34" t="n">
+        <v>4051344.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -868,6 +972,9 @@
       <c r="C35" t="n">
         <v>4575123.11</v>
       </c>
+      <c r="D35" t="n">
+        <v>3776837.02</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -880,6 +987,9 @@
       </c>
       <c r="C36" t="n">
         <v>109802954.64</v>
+      </c>
+      <c r="D36" t="n">
+        <v>124635621.79</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/COME.xlsx
+++ b/backend/src/excel_handler/files/COME.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -465,6 +470,9 @@
       <c r="D2" t="n">
         <v>4576555.3</v>
       </c>
+      <c r="E2" t="n">
+        <v>4579372.39</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -481,6 +489,9 @@
       <c r="D3" t="n">
         <v>3707703.88</v>
       </c>
+      <c r="E3" t="n">
+        <v>3984406.98</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -497,6 +508,9 @@
       <c r="D4" t="n">
         <v>561024.89</v>
       </c>
+      <c r="E4" t="n">
+        <v>563065.3100000001</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -513,6 +527,9 @@
       <c r="D5" t="n">
         <v>2250267.2</v>
       </c>
+      <c r="E5" t="n">
+        <v>2249733.25</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -529,6 +546,9 @@
       <c r="D6" t="n">
         <v>4547409.31</v>
       </c>
+      <c r="E6" t="n">
+        <v>4560871.75</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -545,6 +565,9 @@
       <c r="D7" t="n">
         <v>144429.77</v>
       </c>
+      <c r="E7" t="n">
+        <v>143737.51</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -560,6 +583,9 @@
       </c>
       <c r="D8" t="n">
         <v>228550.29</v>
+      </c>
+      <c r="E8" t="n">
+        <v>137345.36</v>
       </c>
     </row>
     <row r="9">
@@ -575,6 +601,9 @@
       <c r="D9" t="n">
         <v>279356.59</v>
       </c>
+      <c r="E9" t="n">
+        <v>278843.11</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -589,6 +618,9 @@
       <c r="D10" t="n">
         <v>156569.59</v>
       </c>
+      <c r="E10" t="n">
+        <v>156673.24</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -603,6 +635,9 @@
       <c r="D11" t="n">
         <v>250841.35</v>
       </c>
+      <c r="E11" t="n">
+        <v>250728.77</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -617,6 +652,9 @@
       <c r="D12" t="n">
         <v>5448365.37</v>
       </c>
+      <c r="E12" t="n">
+        <v>5449672.05</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -631,6 +669,9 @@
       <c r="D13" t="n">
         <v>4821760.27</v>
       </c>
+      <c r="E13" t="n">
+        <v>4748455.9</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -645,6 +686,7 @@
       <c r="D14" t="n">
         <v>798198.02</v>
       </c>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -659,6 +701,7 @@
       <c r="D15" t="n">
         <v>788917.15</v>
       </c>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -673,6 +716,9 @@
       <c r="D16" t="n">
         <v>1224141.02</v>
       </c>
+      <c r="E16" t="n">
+        <v>1341680.07</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -689,6 +735,9 @@
       <c r="D17" t="n">
         <v>2788194.61</v>
       </c>
+      <c r="E17" t="n">
+        <v>2792287.68</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -705,6 +754,9 @@
       <c r="D18" t="n">
         <v>35249384.38</v>
       </c>
+      <c r="E18" t="n">
+        <v>35241934</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -721,6 +773,9 @@
       <c r="D19" t="n">
         <v>503173.52</v>
       </c>
+      <c r="E19" t="n">
+        <v>504018.71</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -737,6 +792,9 @@
       <c r="D20" t="n">
         <v>10222.47</v>
       </c>
+      <c r="E20" t="n">
+        <v>9973.15</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -753,6 +811,9 @@
       <c r="D21" t="n">
         <v>1115822.33</v>
       </c>
+      <c r="E21" t="n">
+        <v>1113916.46</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -769,6 +830,9 @@
       <c r="D22" t="n">
         <v>2234639.69</v>
       </c>
+      <c r="E22" t="n">
+        <v>2230789.12</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -785,6 +849,9 @@
       <c r="D23" t="n">
         <v>626333.74</v>
       </c>
+      <c r="E23" t="n">
+        <v>656303.49</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -801,6 +868,9 @@
       <c r="D24" t="n">
         <v>61008.86</v>
       </c>
+      <c r="E24" t="n">
+        <v>61080.24</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -817,6 +887,9 @@
       <c r="D25" t="n">
         <v>669025.4300000001</v>
       </c>
+      <c r="E25" t="n">
+        <v>715707.58</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -832,6 +905,9 @@
       </c>
       <c r="D26" t="n">
         <v>403835.28</v>
+      </c>
+      <c r="E26" t="n">
+        <v>403697.32</v>
       </c>
     </row>
     <row r="27">
@@ -847,6 +923,9 @@
       <c r="D27" t="n">
         <v>938374.1800000001</v>
       </c>
+      <c r="E27" t="n">
+        <v>939438.1899999999</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -863,6 +942,9 @@
       <c r="D28" t="n">
         <v>1407383.45</v>
       </c>
+      <c r="E28" t="n">
+        <v>1416616.66</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -879,6 +961,9 @@
       <c r="D29" t="n">
         <v>31247.85</v>
       </c>
+      <c r="E29" t="n">
+        <v>29933.74</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -895,6 +980,9 @@
       <c r="D30" t="n">
         <v>1213995.71</v>
       </c>
+      <c r="E30" t="n">
+        <v>1215268.34</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -911,6 +999,9 @@
       <c r="D31" t="n">
         <v>870614.04</v>
       </c>
+      <c r="E31" t="n">
+        <v>854493.9300000001</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -927,6 +1018,7 @@
       <c r="D32" t="n">
         <v>17769651.84</v>
       </c>
+      <c r="E32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -943,6 +1035,9 @@
       <c r="D33" t="n">
         <v>24907279.91</v>
       </c>
+      <c r="E33" t="n">
+        <v>24922874.13</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -959,6 +1054,9 @@
       <c r="D34" t="n">
         <v>4051344.5</v>
       </c>
+      <c r="E34" t="n">
+        <v>4048037.09</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -975,6 +1073,9 @@
       <c r="D35" t="n">
         <v>3776837.02</v>
       </c>
+      <c r="E35" t="n">
+        <v>3520031.85</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -990,6 +1091,9 @@
       </c>
       <c r="D36" t="n">
         <v>124635621.79</v>
+      </c>
+      <c r="E36" t="n">
+        <v>105600955.52</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/COME.xlsx
+++ b/backend/src/excel_handler/files/COME.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,9 @@
       <c r="E2" t="n">
         <v>4579372.39</v>
       </c>
+      <c r="F2" t="n">
+        <v>4576936.11</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -492,6 +500,9 @@
       <c r="E3" t="n">
         <v>3984406.98</v>
       </c>
+      <c r="F3" t="n">
+        <v>3990307.17</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -511,6 +522,9 @@
       <c r="E4" t="n">
         <v>563065.3100000001</v>
       </c>
+      <c r="F4" t="n">
+        <v>564843.35</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -530,6 +544,9 @@
       <c r="E5" t="n">
         <v>2249733.25</v>
       </c>
+      <c r="F5" t="n">
+        <v>2246212.88</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -549,6 +566,9 @@
       <c r="E6" t="n">
         <v>4560871.75</v>
       </c>
+      <c r="F6" t="n">
+        <v>4549282.35</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -568,6 +588,9 @@
       <c r="E7" t="n">
         <v>143737.51</v>
       </c>
+      <c r="F7" t="n">
+        <v>143175.34</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -586,6 +609,9 @@
       </c>
       <c r="E8" t="n">
         <v>137345.36</v>
+      </c>
+      <c r="F8" t="n">
+        <v>129626.02</v>
       </c>
     </row>
     <row r="9">
@@ -604,6 +630,9 @@
       <c r="E9" t="n">
         <v>278843.11</v>
       </c>
+      <c r="F9" t="n">
+        <v>281552.55</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -621,6 +650,9 @@
       <c r="E10" t="n">
         <v>156673.24</v>
       </c>
+      <c r="F10" t="n">
+        <v>156668.16</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -638,6 +670,9 @@
       <c r="E11" t="n">
         <v>250728.77</v>
       </c>
+      <c r="F11" t="n">
+        <v>250926.84</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -655,6 +690,9 @@
       <c r="E12" t="n">
         <v>5449672.05</v>
       </c>
+      <c r="F12" t="n">
+        <v>5443011.15</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -672,6 +710,9 @@
       <c r="E13" t="n">
         <v>4748455.9</v>
       </c>
+      <c r="F13" t="n">
+        <v>4755443.81</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -687,6 +728,7 @@
         <v>798198.02</v>
       </c>
       <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -702,6 +744,7 @@
         <v>788917.15</v>
       </c>
       <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -719,6 +762,9 @@
       <c r="E16" t="n">
         <v>1341680.07</v>
       </c>
+      <c r="F16" t="n">
+        <v>1291280.28</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -738,6 +784,9 @@
       <c r="E17" t="n">
         <v>2792287.68</v>
       </c>
+      <c r="F17" t="n">
+        <v>2791049.78</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -757,6 +806,9 @@
       <c r="E18" t="n">
         <v>35241934</v>
       </c>
+      <c r="F18" t="n">
+        <v>36268616.48</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -776,6 +828,9 @@
       <c r="E19" t="n">
         <v>504018.71</v>
       </c>
+      <c r="F19" t="n">
+        <v>503778.59</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -795,6 +850,9 @@
       <c r="E20" t="n">
         <v>9973.15</v>
       </c>
+      <c r="F20" t="n">
+        <v>10361.53</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -814,6 +872,9 @@
       <c r="E21" t="n">
         <v>1113916.46</v>
       </c>
+      <c r="F21" t="n">
+        <v>1116191.21</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -833,6 +894,9 @@
       <c r="E22" t="n">
         <v>2230789.12</v>
       </c>
+      <c r="F22" t="n">
+        <v>2236250.23</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -852,6 +916,9 @@
       <c r="E23" t="n">
         <v>656303.49</v>
       </c>
+      <c r="F23" t="n">
+        <v>650267.2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -871,6 +938,9 @@
       <c r="E24" t="n">
         <v>61080.24</v>
       </c>
+      <c r="F24" t="n">
+        <v>61330.33</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -890,6 +960,9 @@
       <c r="E25" t="n">
         <v>715707.58</v>
       </c>
+      <c r="F25" t="n">
+        <v>614705.9399999999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -908,6 +981,9 @@
       </c>
       <c r="E26" t="n">
         <v>403697.32</v>
+      </c>
+      <c r="F26" t="n">
+        <v>404988.91</v>
       </c>
     </row>
     <row r="27">
@@ -926,6 +1002,9 @@
       <c r="E27" t="n">
         <v>939438.1899999999</v>
       </c>
+      <c r="F27" t="n">
+        <v>940515.9399999999</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -945,6 +1024,9 @@
       <c r="E28" t="n">
         <v>1416616.66</v>
       </c>
+      <c r="F28" t="n">
+        <v>1411662.15</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -964,6 +1046,9 @@
       <c r="E29" t="n">
         <v>29933.74</v>
       </c>
+      <c r="F29" t="n">
+        <v>29194.99</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -983,6 +1068,9 @@
       <c r="E30" t="n">
         <v>1215268.34</v>
       </c>
+      <c r="F30" t="n">
+        <v>1364015.86</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1002,6 +1090,9 @@
       <c r="E31" t="n">
         <v>854493.9300000001</v>
       </c>
+      <c r="F31" t="n">
+        <v>926644.8199999999</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1019,6 +1110,7 @@
         <v>17769651.84</v>
       </c>
       <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1038,6 +1130,9 @@
       <c r="E33" t="n">
         <v>24922874.13</v>
       </c>
+      <c r="F33" t="n">
+        <v>24910305.57</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1057,6 +1152,9 @@
       <c r="E34" t="n">
         <v>4048037.09</v>
       </c>
+      <c r="F34" t="n">
+        <v>4063228.9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1076,6 +1174,9 @@
       <c r="E35" t="n">
         <v>3520031.85</v>
       </c>
+      <c r="F35" t="n">
+        <v>3556079.15</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1094,6 +1195,9 @@
       </c>
       <c r="E36" t="n">
         <v>105600955.52</v>
+      </c>
+      <c r="F36" t="n">
+        <v>106682374.44</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/COME.xlsx
+++ b/backend/src/excel_handler/files/COME.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,9 @@
       <c r="F2" t="n">
         <v>4576936.11</v>
       </c>
+      <c r="G2" t="n">
+        <v>4575866.19</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -503,6 +511,9 @@
       <c r="F3" t="n">
         <v>3990307.17</v>
       </c>
+      <c r="G3" t="n">
+        <v>3985844.72</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -525,6 +536,9 @@
       <c r="F4" t="n">
         <v>564843.35</v>
       </c>
+      <c r="G4" t="n">
+        <v>561767.2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -547,6 +561,9 @@
       <c r="F5" t="n">
         <v>2246212.88</v>
       </c>
+      <c r="G5" t="n">
+        <v>2247653.09</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -569,6 +586,9 @@
       <c r="F6" t="n">
         <v>4549282.35</v>
       </c>
+      <c r="G6" t="n">
+        <v>4561268.23</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -591,6 +611,9 @@
       <c r="F7" t="n">
         <v>143175.34</v>
       </c>
+      <c r="G7" t="n">
+        <v>143231.57</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -612,6 +635,9 @@
       </c>
       <c r="F8" t="n">
         <v>129626.02</v>
+      </c>
+      <c r="G8" t="n">
+        <v>125444</v>
       </c>
     </row>
     <row r="9">
@@ -633,6 +659,9 @@
       <c r="F9" t="n">
         <v>281552.55</v>
       </c>
+      <c r="G9" t="n">
+        <v>279678.97</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -653,6 +682,9 @@
       <c r="F10" t="n">
         <v>156668.16</v>
       </c>
+      <c r="G10" t="n">
+        <v>156724.72</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -673,6 +705,9 @@
       <c r="F11" t="n">
         <v>250926.84</v>
       </c>
+      <c r="G11" t="n">
+        <v>250967.51</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -693,6 +728,9 @@
       <c r="F12" t="n">
         <v>5443011.15</v>
       </c>
+      <c r="G12" t="n">
+        <v>5442534.72</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -713,6 +751,9 @@
       <c r="F13" t="n">
         <v>4755443.81</v>
       </c>
+      <c r="G13" t="n">
+        <v>4746124.25</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -729,6 +770,7 @@
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -745,6 +787,7 @@
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -765,6 +808,9 @@
       <c r="F16" t="n">
         <v>1291280.28</v>
       </c>
+      <c r="G16" t="n">
+        <v>1306950.62</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -787,6 +833,9 @@
       <c r="F17" t="n">
         <v>2791049.78</v>
       </c>
+      <c r="G17" t="n">
+        <v>2785384.15</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -809,6 +858,9 @@
       <c r="F18" t="n">
         <v>36268616.48</v>
       </c>
+      <c r="G18" t="n">
+        <v>36255393.85</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -831,6 +883,9 @@
       <c r="F19" t="n">
         <v>503778.59</v>
       </c>
+      <c r="G19" t="n">
+        <v>503108.3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -853,6 +908,9 @@
       <c r="F20" t="n">
         <v>10361.53</v>
       </c>
+      <c r="G20" t="n">
+        <v>10031.78</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -875,6 +933,9 @@
       <c r="F21" t="n">
         <v>1116191.21</v>
       </c>
+      <c r="G21" t="n">
+        <v>1117482.94</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -897,6 +958,9 @@
       <c r="F22" t="n">
         <v>2236250.23</v>
       </c>
+      <c r="G22" t="n">
+        <v>2236189.03</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -919,6 +983,9 @@
       <c r="F23" t="n">
         <v>650267.2</v>
       </c>
+      <c r="G23" t="n">
+        <v>651944.02</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -941,6 +1008,9 @@
       <c r="F24" t="n">
         <v>61330.33</v>
       </c>
+      <c r="G24" t="n">
+        <v>61115.88</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -963,6 +1033,9 @@
       <c r="F25" t="n">
         <v>614705.9399999999</v>
       </c>
+      <c r="G25" t="n">
+        <v>615171.67</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -984,6 +1057,9 @@
       </c>
       <c r="F26" t="n">
         <v>404988.91</v>
+      </c>
+      <c r="G26" t="n">
+        <v>403662.09</v>
       </c>
     </row>
     <row r="27">
@@ -1005,6 +1081,9 @@
       <c r="F27" t="n">
         <v>940515.9399999999</v>
       </c>
+      <c r="G27" t="n">
+        <v>939075.53</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1027,6 +1106,9 @@
       <c r="F28" t="n">
         <v>1411662.15</v>
       </c>
+      <c r="G28" t="n">
+        <v>1559843.51</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1049,6 +1131,9 @@
       <c r="F29" t="n">
         <v>29194.99</v>
       </c>
+      <c r="G29" t="n">
+        <v>31972.85</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1071,6 +1156,9 @@
       <c r="F30" t="n">
         <v>1364015.86</v>
       </c>
+      <c r="G30" t="n">
+        <v>1368243.99</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1093,6 +1181,9 @@
       <c r="F31" t="n">
         <v>926644.8199999999</v>
       </c>
+      <c r="G31" t="n">
+        <v>935577.9</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1111,6 +1202,7 @@
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1133,6 +1225,9 @@
       <c r="F33" t="n">
         <v>24910305.57</v>
       </c>
+      <c r="G33" t="n">
+        <v>24908758.54</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1155,6 +1250,9 @@
       <c r="F34" t="n">
         <v>4063228.9</v>
       </c>
+      <c r="G34" t="n">
+        <v>4053912.64</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1177,6 +1275,9 @@
       <c r="F35" t="n">
         <v>3556079.15</v>
       </c>
+      <c r="G35" t="n">
+        <v>3560697.48</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1198,6 +1299,9 @@
       </c>
       <c r="F36" t="n">
         <v>106682374.44</v>
+      </c>
+      <c r="G36" t="n">
+        <v>106820924.46</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/COME.xlsx
+++ b/backend/src/excel_handler/files/COME.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>4575866.19</v>
       </c>
+      <c r="H2" t="n">
+        <v>4404460.94</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>3985844.72</v>
       </c>
+      <c r="H3" t="n">
+        <v>3981206.42</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>561767.2</v>
       </c>
+      <c r="H4" t="n">
+        <v>565019.47</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -564,6 +578,9 @@
       <c r="G5" t="n">
         <v>2247653.09</v>
       </c>
+      <c r="H5" t="n">
+        <v>2249478.79</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -589,6 +606,9 @@
       <c r="G6" t="n">
         <v>4561268.23</v>
       </c>
+      <c r="H6" t="n">
+        <v>4545796.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -614,6 +634,9 @@
       <c r="G7" t="n">
         <v>143231.57</v>
       </c>
+      <c r="H7" t="n">
+        <v>143131.46</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -638,6 +661,9 @@
       </c>
       <c r="G8" t="n">
         <v>125444</v>
+      </c>
+      <c r="H8" t="n">
+        <v>130294.41</v>
       </c>
     </row>
     <row r="9">
@@ -662,6 +688,9 @@
       <c r="G9" t="n">
         <v>279678.97</v>
       </c>
+      <c r="H9" t="n">
+        <v>282489.52</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -685,6 +714,9 @@
       <c r="G10" t="n">
         <v>156724.72</v>
       </c>
+      <c r="H10" t="n">
+        <v>156780.84</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -708,6 +740,9 @@
       <c r="G11" t="n">
         <v>250967.51</v>
       </c>
+      <c r="H11" t="n">
+        <v>250864.98</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -731,6 +766,9 @@
       <c r="G12" t="n">
         <v>5442534.72</v>
       </c>
+      <c r="H12" t="n">
+        <v>5449603.21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -754,6 +792,9 @@
       <c r="G13" t="n">
         <v>4746124.25</v>
       </c>
+      <c r="H13" t="n">
+        <v>4752207.38</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -771,6 +812,7 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -788,6 +830,7 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -811,6 +854,9 @@
       <c r="G16" t="n">
         <v>1306950.62</v>
       </c>
+      <c r="H16" t="n">
+        <v>1303314.6</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -836,6 +882,9 @@
       <c r="G17" t="n">
         <v>2785384.15</v>
       </c>
+      <c r="H17" t="n">
+        <v>2785968.66</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -861,6 +910,9 @@
       <c r="G18" t="n">
         <v>36255393.85</v>
       </c>
+      <c r="H18" t="n">
+        <v>36241319.01</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -886,6 +938,9 @@
       <c r="G19" t="n">
         <v>503108.3</v>
       </c>
+      <c r="H19" t="n">
+        <v>503076.66</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -911,6 +966,9 @@
       <c r="G20" t="n">
         <v>10031.78</v>
       </c>
+      <c r="H20" t="n">
+        <v>10410.74</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -936,6 +994,9 @@
       <c r="G21" t="n">
         <v>1117482.94</v>
       </c>
+      <c r="H21" t="n">
+        <v>1067985.71</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -961,6 +1022,9 @@
       <c r="G22" t="n">
         <v>2236189.03</v>
       </c>
+      <c r="H22" t="n">
+        <v>2239155.35</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -986,6 +1050,9 @@
       <c r="G23" t="n">
         <v>651944.02</v>
       </c>
+      <c r="H23" t="n">
+        <v>770808.65</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1011,6 +1078,9 @@
       <c r="G24" t="n">
         <v>61115.88</v>
       </c>
+      <c r="H24" t="n">
+        <v>61275.22</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1036,6 +1106,9 @@
       <c r="G25" t="n">
         <v>615171.67</v>
       </c>
+      <c r="H25" t="n">
+        <v>617496.6800000001</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1060,6 +1133,9 @@
       </c>
       <c r="G26" t="n">
         <v>403662.09</v>
+      </c>
+      <c r="H26" t="n">
+        <v>404935.79</v>
       </c>
     </row>
     <row r="27">
@@ -1084,6 +1160,9 @@
       <c r="G27" t="n">
         <v>939075.53</v>
       </c>
+      <c r="H27" t="n">
+        <v>940000.59</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1109,6 +1188,9 @@
       <c r="G28" t="n">
         <v>1559843.51</v>
       </c>
+      <c r="H28" t="n">
+        <v>1557948.48</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1134,6 +1216,9 @@
       <c r="G29" t="n">
         <v>31972.85</v>
       </c>
+      <c r="H29" t="n">
+        <v>30463.41</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1159,6 +1244,9 @@
       <c r="G30" t="n">
         <v>1368243.99</v>
       </c>
+      <c r="H30" t="n">
+        <v>1368340.22</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1183,6 +1271,9 @@
       </c>
       <c r="G31" t="n">
         <v>935577.9</v>
+      </c>
+      <c r="H31" t="n">
+        <v>937976.48</v>
       </c>
     </row>
     <row r="32">
@@ -1203,6 +1294,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1228,6 +1320,9 @@
       <c r="G33" t="n">
         <v>24908758.54</v>
       </c>
+      <c r="H33" t="n">
+        <v>24912822.39</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1253,6 +1348,9 @@
       <c r="G34" t="n">
         <v>4053912.64</v>
       </c>
+      <c r="H34" t="n">
+        <v>4055286.03</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1278,6 +1376,9 @@
       <c r="G35" t="n">
         <v>3560697.48</v>
       </c>
+      <c r="H35" t="n">
+        <v>3557330.62</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1302,6 +1403,9 @@
       </c>
       <c r="G36" t="n">
         <v>106820924.46</v>
+      </c>
+      <c r="H36" t="n">
+        <v>106719918.59</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/COME.xlsx
+++ b/backend/src/excel_handler/files/COME.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,9 @@
       <c r="H2" t="n">
         <v>4404460.94</v>
       </c>
+      <c r="I2" t="n">
+        <v>3888137.83</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -525,6 +533,9 @@
       <c r="H3" t="n">
         <v>3981206.42</v>
       </c>
+      <c r="I3" t="n">
+        <v>3975325.98</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -553,6 +564,9 @@
       <c r="H4" t="n">
         <v>565019.47</v>
       </c>
+      <c r="I4" t="n">
+        <v>561706.97</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -581,6 +595,9 @@
       <c r="H5" t="n">
         <v>2249478.79</v>
       </c>
+      <c r="I5" t="n">
+        <v>2242552.15</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -609,6 +626,9 @@
       <c r="H6" t="n">
         <v>4545796.5</v>
       </c>
+      <c r="I6" t="n">
+        <v>3914980.98</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -637,6 +657,9 @@
       <c r="H7" t="n">
         <v>143131.46</v>
       </c>
+      <c r="I7" t="n">
+        <v>143048.91</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -664,6 +687,9 @@
       </c>
       <c r="H8" t="n">
         <v>130294.41</v>
+      </c>
+      <c r="I8" t="n">
+        <v>136569.84</v>
       </c>
     </row>
     <row r="9">
@@ -691,6 +717,9 @@
       <c r="H9" t="n">
         <v>282489.52</v>
       </c>
+      <c r="I9" t="n">
+        <v>281216.87</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -717,6 +746,9 @@
       <c r="H10" t="n">
         <v>156780.84</v>
       </c>
+      <c r="I10" t="n">
+        <v>156737.36</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -743,6 +775,9 @@
       <c r="H11" t="n">
         <v>250864.98</v>
       </c>
+      <c r="I11" t="n">
+        <v>250700.64</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -769,6 +804,9 @@
       <c r="H12" t="n">
         <v>5449603.21</v>
       </c>
+      <c r="I12" t="n">
+        <v>5450798.61</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -794,6 +832,9 @@
       </c>
       <c r="H13" t="n">
         <v>4752207.38</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4755914.85</v>
       </c>
     </row>
     <row r="14">
@@ -813,6 +854,7 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -831,6 +873,7 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -857,6 +900,9 @@
       <c r="H16" t="n">
         <v>1303314.6</v>
       </c>
+      <c r="I16" t="n">
+        <v>1397009.92</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -885,6 +931,9 @@
       <c r="H17" t="n">
         <v>2785968.66</v>
       </c>
+      <c r="I17" t="n">
+        <v>2778975.33</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -913,6 +962,9 @@
       <c r="H18" t="n">
         <v>36241319.01</v>
       </c>
+      <c r="I18" t="n">
+        <v>36237809.81</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -941,6 +993,9 @@
       <c r="H19" t="n">
         <v>503076.66</v>
       </c>
+      <c r="I19" t="n">
+        <v>578936.66</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -969,6 +1024,9 @@
       <c r="H20" t="n">
         <v>10410.74</v>
       </c>
+      <c r="I20" t="n">
+        <v>10477.52</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -997,6 +1055,9 @@
       <c r="H21" t="n">
         <v>1067985.71</v>
       </c>
+      <c r="I21" t="n">
+        <v>960983.92</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1025,6 +1086,9 @@
       <c r="H22" t="n">
         <v>2239155.35</v>
       </c>
+      <c r="I22" t="n">
+        <v>2233492.64</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1053,6 +1117,9 @@
       <c r="H23" t="n">
         <v>770808.65</v>
       </c>
+      <c r="I23" t="n">
+        <v>772569.45</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1081,6 +1148,9 @@
       <c r="H24" t="n">
         <v>61275.22</v>
       </c>
+      <c r="I24" t="n">
+        <v>60987.94</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1109,6 +1179,9 @@
       <c r="H25" t="n">
         <v>617496.6800000001</v>
       </c>
+      <c r="I25" t="n">
+        <v>614491.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1136,6 +1209,9 @@
       </c>
       <c r="H26" t="n">
         <v>404935.79</v>
+      </c>
+      <c r="I26" t="n">
+        <v>405682.8</v>
       </c>
     </row>
     <row r="27">
@@ -1163,6 +1239,9 @@
       <c r="H27" t="n">
         <v>940000.59</v>
       </c>
+      <c r="I27" t="n">
+        <v>942852.0699999999</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1191,6 +1270,9 @@
       <c r="H28" t="n">
         <v>1557948.48</v>
       </c>
+      <c r="I28" t="n">
+        <v>1559645.43</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1219,6 +1301,9 @@
       <c r="H29" t="n">
         <v>30463.41</v>
       </c>
+      <c r="I29" t="n">
+        <v>382036.29</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1247,6 +1332,9 @@
       <c r="H30" t="n">
         <v>1368340.22</v>
       </c>
+      <c r="I30" t="n">
+        <v>1366826.45</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1274,6 +1362,9 @@
       </c>
       <c r="H31" t="n">
         <v>937976.48</v>
+      </c>
+      <c r="I31" t="n">
+        <v>937115.73</v>
       </c>
     </row>
     <row r="32">
@@ -1295,6 +1386,7 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1323,6 +1415,9 @@
       <c r="H33" t="n">
         <v>24912822.39</v>
       </c>
+      <c r="I33" t="n">
+        <v>24914614.25</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1351,6 +1446,9 @@
       <c r="H34" t="n">
         <v>4055286.03</v>
       </c>
+      <c r="I34" t="n">
+        <v>4054904.97</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1379,6 +1477,9 @@
       <c r="H35" t="n">
         <v>3557330.62</v>
       </c>
+      <c r="I35" t="n">
+        <v>3532236.78</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1406,6 +1507,9 @@
       </c>
       <c r="H36" t="n">
         <v>106719918.59</v>
+      </c>
+      <c r="I36" t="n">
+        <v>105967103.27</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/COME.xlsx
+++ b/backend/src/excel_handler/files/COME.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,9 @@
       <c r="I2" t="n">
         <v>3888137.83</v>
       </c>
+      <c r="J2" t="n">
+        <v>3463999.98</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -536,6 +544,9 @@
       <c r="I3" t="n">
         <v>3975325.98</v>
       </c>
+      <c r="J3" t="n">
+        <v>3978358.22</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -567,6 +578,9 @@
       <c r="I4" t="n">
         <v>561706.97</v>
       </c>
+      <c r="J4" t="n">
+        <v>562467.97</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -598,6 +612,9 @@
       <c r="I5" t="n">
         <v>2242552.15</v>
       </c>
+      <c r="J5" t="n">
+        <v>2246180.55</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -629,6 +646,9 @@
       <c r="I6" t="n">
         <v>3914980.98</v>
       </c>
+      <c r="J6" t="n">
+        <v>3909022.44</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -660,6 +680,9 @@
       <c r="I7" t="n">
         <v>143048.91</v>
       </c>
+      <c r="J7" t="n">
+        <v>143801.64</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -690,6 +713,9 @@
       </c>
       <c r="I8" t="n">
         <v>136569.84</v>
+      </c>
+      <c r="J8" t="n">
+        <v>135695.73</v>
       </c>
     </row>
     <row r="9">
@@ -720,6 +746,9 @@
       <c r="I9" t="n">
         <v>281216.87</v>
       </c>
+      <c r="J9" t="n">
+        <v>281900.86</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -749,6 +778,9 @@
       <c r="I10" t="n">
         <v>156737.36</v>
       </c>
+      <c r="J10" t="n">
+        <v>156597.67</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -778,6 +810,9 @@
       <c r="I11" t="n">
         <v>250700.64</v>
       </c>
+      <c r="J11" t="n">
+        <v>250682.49</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -807,6 +842,9 @@
       <c r="I12" t="n">
         <v>5450798.61</v>
       </c>
+      <c r="J12" t="n">
+        <v>5446289.64</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -835,6 +873,9 @@
       </c>
       <c r="I13" t="n">
         <v>4755914.85</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4736198.46</v>
       </c>
     </row>
     <row r="14">
@@ -855,6 +896,7 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -874,6 +916,7 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -903,6 +946,9 @@
       <c r="I16" t="n">
         <v>1397009.92</v>
       </c>
+      <c r="J16" t="n">
+        <v>1403648.36</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -934,6 +980,9 @@
       <c r="I17" t="n">
         <v>2778975.33</v>
       </c>
+      <c r="J17" t="n">
+        <v>2789632.35</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -965,6 +1014,9 @@
       <c r="I18" t="n">
         <v>36237809.81</v>
       </c>
+      <c r="J18" t="n">
+        <v>36273450.56</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -996,6 +1048,9 @@
       <c r="I19" t="n">
         <v>578936.66</v>
       </c>
+      <c r="J19" t="n">
+        <v>578507.16</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1027,6 +1082,9 @@
       <c r="I20" t="n">
         <v>10477.52</v>
       </c>
+      <c r="J20" t="n">
+        <v>10380.89</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1058,6 +1116,9 @@
       <c r="I21" t="n">
         <v>960983.92</v>
       </c>
+      <c r="J21" t="n">
+        <v>915590.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1089,6 +1150,9 @@
       <c r="I22" t="n">
         <v>2233492.64</v>
       </c>
+      <c r="J22" t="n">
+        <v>2232783.41</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1120,6 +1184,9 @@
       <c r="I23" t="n">
         <v>772569.45</v>
       </c>
+      <c r="J23" t="n">
+        <v>771328.89</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1151,6 +1218,9 @@
       <c r="I24" t="n">
         <v>60987.94</v>
       </c>
+      <c r="J24" t="n">
+        <v>61046.1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1182,6 +1252,9 @@
       <c r="I25" t="n">
         <v>614491.1</v>
       </c>
+      <c r="J25" t="n">
+        <v>615296.84</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1212,6 +1285,9 @@
       </c>
       <c r="I26" t="n">
         <v>405682.8</v>
+      </c>
+      <c r="J26" t="n">
+        <v>405039.97</v>
       </c>
     </row>
     <row r="27">
@@ -1242,6 +1318,9 @@
       <c r="I27" t="n">
         <v>942852.0699999999</v>
       </c>
+      <c r="J27" t="n">
+        <v>938753.14</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1273,6 +1352,9 @@
       <c r="I28" t="n">
         <v>1559645.43</v>
       </c>
+      <c r="J28" t="n">
+        <v>1559536.85</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1304,6 +1386,9 @@
       <c r="I29" t="n">
         <v>382036.29</v>
       </c>
+      <c r="J29" t="n">
+        <v>501992.11</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1335,6 +1420,9 @@
       <c r="I30" t="n">
         <v>1366826.45</v>
       </c>
+      <c r="J30" t="n">
+        <v>1364362.93</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1365,6 +1453,9 @@
       </c>
       <c r="I31" t="n">
         <v>937115.73</v>
+      </c>
+      <c r="J31" t="n">
+        <v>938610.3100000001</v>
       </c>
     </row>
     <row r="32">
@@ -1387,6 +1478,7 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1418,6 +1510,9 @@
       <c r="I33" t="n">
         <v>24914614.25</v>
       </c>
+      <c r="J33" t="n">
+        <v>24945918.63</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1449,6 +1544,9 @@
       <c r="I34" t="n">
         <v>4054904.97</v>
       </c>
+      <c r="J34" t="n">
+        <v>4059341.84</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1480,6 +1578,9 @@
       <c r="I35" t="n">
         <v>3532236.78</v>
       </c>
+      <c r="J35" t="n">
+        <v>3522547.23</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1510,6 +1611,9 @@
       </c>
       <c r="I36" t="n">
         <v>105967103.27</v>
+      </c>
+      <c r="J36" t="n">
+        <v>105676416.94</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/COME.xlsx
+++ b/backend/src/excel_handler/files/COME.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,9 @@
       <c r="J2" t="n">
         <v>3463999.98</v>
       </c>
+      <c r="K2" t="n">
+        <v>3462975.17</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -547,6 +555,9 @@
       <c r="J3" t="n">
         <v>3978358.22</v>
       </c>
+      <c r="K3" t="n">
+        <v>3986081.15</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -581,6 +592,9 @@
       <c r="J4" t="n">
         <v>562467.97</v>
       </c>
+      <c r="K4" t="n">
+        <v>563089.62</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -615,6 +629,9 @@
       <c r="J5" t="n">
         <v>2246180.55</v>
       </c>
+      <c r="K5" t="n">
+        <v>2247383.88</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -649,6 +666,9 @@
       <c r="J6" t="n">
         <v>3909022.44</v>
       </c>
+      <c r="K6" t="n">
+        <v>3912139.7</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -683,6 +703,9 @@
       <c r="J7" t="n">
         <v>143801.64</v>
       </c>
+      <c r="K7" t="n">
+        <v>17112.65</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -716,6 +739,9 @@
       </c>
       <c r="J8" t="n">
         <v>135695.73</v>
+      </c>
+      <c r="K8" t="n">
+        <v>136519.62</v>
       </c>
     </row>
     <row r="9">
@@ -749,6 +775,9 @@
       <c r="J9" t="n">
         <v>281900.86</v>
       </c>
+      <c r="K9" t="n">
+        <v>279208.73</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -781,6 +810,9 @@
       <c r="J10" t="n">
         <v>156597.67</v>
       </c>
+      <c r="K10" t="n">
+        <v>156692.97</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -813,6 +845,9 @@
       <c r="J11" t="n">
         <v>250682.49</v>
       </c>
+      <c r="K11" t="n">
+        <v>250802.15</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -845,6 +880,9 @@
       <c r="J12" t="n">
         <v>5446289.64</v>
       </c>
+      <c r="K12" t="n">
+        <v>5448203.74</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -876,6 +914,9 @@
       </c>
       <c r="J13" t="n">
         <v>4736198.46</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4748918.42</v>
       </c>
     </row>
     <row r="14">
@@ -897,6 +938,7 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -917,6 +959,7 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -949,6 +992,9 @@
       <c r="J16" t="n">
         <v>1403648.36</v>
       </c>
+      <c r="K16" t="n">
+        <v>1401550.55</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -983,6 +1029,9 @@
       <c r="J17" t="n">
         <v>2789632.35</v>
       </c>
+      <c r="K17" t="n">
+        <v>2779672.82</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1017,6 +1066,9 @@
       <c r="J18" t="n">
         <v>36273450.56</v>
       </c>
+      <c r="K18" t="n">
+        <v>38023404.26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1051,6 +1103,9 @@
       <c r="J19" t="n">
         <v>578507.16</v>
       </c>
+      <c r="K19" t="n">
+        <v>578189.21</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1085,6 +1140,9 @@
       <c r="J20" t="n">
         <v>10380.89</v>
       </c>
+      <c r="K20" t="n">
+        <v>10458.56</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1119,6 +1177,9 @@
       <c r="J21" t="n">
         <v>915590.95</v>
       </c>
+      <c r="K21" t="n">
+        <v>912386.39</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1153,6 +1214,9 @@
       <c r="J22" t="n">
         <v>2232783.41</v>
       </c>
+      <c r="K22" t="n">
+        <v>2235960.35</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1187,6 +1251,9 @@
       <c r="J23" t="n">
         <v>771328.89</v>
       </c>
+      <c r="K23" t="n">
+        <v>772137.0699999999</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1221,6 +1288,9 @@
       <c r="J24" t="n">
         <v>61046.1</v>
       </c>
+      <c r="K24" t="n">
+        <v>61232.93</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1255,6 +1325,9 @@
       <c r="J25" t="n">
         <v>615296.84</v>
       </c>
+      <c r="K25" t="n">
+        <v>614710.71</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1288,6 +1361,9 @@
       </c>
       <c r="J26" t="n">
         <v>405039.97</v>
+      </c>
+      <c r="K26" t="n">
+        <v>404516.47</v>
       </c>
     </row>
     <row r="27">
@@ -1321,6 +1397,9 @@
       <c r="J27" t="n">
         <v>938753.14</v>
       </c>
+      <c r="K27" t="n">
+        <v>942040.46</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1355,6 +1434,9 @@
       <c r="J28" t="n">
         <v>1559536.85</v>
       </c>
+      <c r="K28" t="n">
+        <v>1563043.66</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1389,6 +1471,9 @@
       <c r="J29" t="n">
         <v>501992.11</v>
       </c>
+      <c r="K29" t="n">
+        <v>499548.43</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1423,6 +1508,9 @@
       <c r="J30" t="n">
         <v>1364362.93</v>
       </c>
+      <c r="K30" t="n">
+        <v>1366084.57</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1456,6 +1544,9 @@
       </c>
       <c r="J31" t="n">
         <v>938610.3100000001</v>
+      </c>
+      <c r="K31" t="n">
+        <v>938408.13</v>
       </c>
     </row>
     <row r="32">
@@ -1479,6 +1570,7 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1513,6 +1605,9 @@
       <c r="J33" t="n">
         <v>24945918.63</v>
       </c>
+      <c r="K33" t="n">
+        <v>24144267.97</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1547,6 +1642,9 @@
       <c r="J34" t="n">
         <v>4059341.84</v>
       </c>
+      <c r="K34" t="n">
+        <v>4056880.72</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1581,6 +1679,9 @@
       <c r="J35" t="n">
         <v>3522547.23</v>
       </c>
+      <c r="K35" t="n">
+        <v>3550454.04</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1614,6 +1715,9 @@
       </c>
       <c r="J36" t="n">
         <v>105676416.94</v>
+      </c>
+      <c r="K36" t="n">
+        <v>106513621.06</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/COME.xlsx
+++ b/backend/src/excel_handler/files/COME.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,9 @@
       <c r="K2" t="n">
         <v>3462975.17</v>
       </c>
+      <c r="L2" t="n">
+        <v>2825944.54</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -558,6 +566,9 @@
       <c r="K3" t="n">
         <v>3986081.15</v>
       </c>
+      <c r="L3" t="n">
+        <v>3710970.77</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -595,6 +606,9 @@
       <c r="K4" t="n">
         <v>563089.62</v>
       </c>
+      <c r="L4" t="n">
+        <v>563212.52</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -632,6 +646,9 @@
       <c r="K5" t="n">
         <v>2247383.88</v>
       </c>
+      <c r="L5" t="n">
+        <v>2248172.81</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -669,6 +686,9 @@
       <c r="K6" t="n">
         <v>3912139.7</v>
       </c>
+      <c r="L6" t="n">
+        <v>3907403.65</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -706,6 +726,9 @@
       <c r="K7" t="n">
         <v>17112.65</v>
       </c>
+      <c r="L7" t="n">
+        <v>17120.11</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -742,6 +765,9 @@
       </c>
       <c r="K8" t="n">
         <v>136519.62</v>
+      </c>
+      <c r="L8" t="n">
+        <v>136292.65</v>
       </c>
     </row>
     <row r="9">
@@ -778,6 +804,9 @@
       <c r="K9" t="n">
         <v>279208.73</v>
       </c>
+      <c r="L9" t="n">
+        <v>279068.06</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -813,6 +842,9 @@
       <c r="K10" t="n">
         <v>156692.97</v>
       </c>
+      <c r="L10" t="n">
+        <v>156636.38</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -848,6 +880,9 @@
       <c r="K11" t="n">
         <v>250802.15</v>
       </c>
+      <c r="L11" t="n">
+        <v>250853.42</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -883,6 +918,9 @@
       <c r="K12" t="n">
         <v>5448203.74</v>
       </c>
+      <c r="L12" t="n">
+        <v>5450351.82</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -917,6 +955,9 @@
       </c>
       <c r="K13" t="n">
         <v>4748918.42</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4754098.57</v>
       </c>
     </row>
     <row r="14">
@@ -939,6 +980,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -960,6 +1002,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -995,6 +1038,9 @@
       <c r="K16" t="n">
         <v>1401550.55</v>
       </c>
+      <c r="L16" t="n">
+        <v>1387744.29</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1032,6 +1078,9 @@
       <c r="K17" t="n">
         <v>2779672.82</v>
       </c>
+      <c r="L17" t="n">
+        <v>2786051.18</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1069,6 +1118,9 @@
       <c r="K18" t="n">
         <v>38023404.26</v>
       </c>
+      <c r="L18" t="n">
+        <v>38025630.31</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1106,6 +1158,9 @@
       <c r="K19" t="n">
         <v>578189.21</v>
       </c>
+      <c r="L19" t="n">
+        <v>578339.01</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1143,6 +1198,9 @@
       <c r="K20" t="n">
         <v>10458.56</v>
       </c>
+      <c r="L20" t="n">
+        <v>10356.34</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1180,6 +1238,9 @@
       <c r="K21" t="n">
         <v>912386.39</v>
       </c>
+      <c r="L21" t="n">
+        <v>811623.13</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1217,6 +1278,9 @@
       <c r="K22" t="n">
         <v>2235960.35</v>
       </c>
+      <c r="L22" t="n">
+        <v>2172240.8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1254,6 +1318,9 @@
       <c r="K23" t="n">
         <v>772137.0699999999</v>
       </c>
+      <c r="L23" t="n">
+        <v>767007.64</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1291,6 +1358,9 @@
       <c r="K24" t="n">
         <v>61232.93</v>
       </c>
+      <c r="L24" t="n">
+        <v>61147.98</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1328,6 +1398,9 @@
       <c r="K25" t="n">
         <v>614710.71</v>
       </c>
+      <c r="L25" t="n">
+        <v>618004.24</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1364,6 +1437,9 @@
       </c>
       <c r="K26" t="n">
         <v>404516.47</v>
+      </c>
+      <c r="L26" t="n">
+        <v>404332.67</v>
       </c>
     </row>
     <row r="27">
@@ -1400,6 +1476,9 @@
       <c r="K27" t="n">
         <v>942040.46</v>
       </c>
+      <c r="L27" t="n">
+        <v>938375.88</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1437,6 +1516,9 @@
       <c r="K28" t="n">
         <v>1563043.66</v>
       </c>
+      <c r="L28" t="n">
+        <v>1566226.74</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1474,6 +1556,9 @@
       <c r="K29" t="n">
         <v>499548.43</v>
       </c>
+      <c r="L29" t="n">
+        <v>599995.17</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1511,6 +1596,9 @@
       <c r="K30" t="n">
         <v>1366084.57</v>
       </c>
+      <c r="L30" t="n">
+        <v>1367066.87</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1547,6 +1635,9 @@
       </c>
       <c r="K31" t="n">
         <v>938408.13</v>
+      </c>
+      <c r="L31" t="n">
+        <v>939666.11</v>
       </c>
     </row>
     <row r="32">
@@ -1571,6 +1662,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1608,6 +1700,9 @@
       <c r="K33" t="n">
         <v>24144267.97</v>
       </c>
+      <c r="L33" t="n">
+        <v>24153658.03</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1645,6 +1740,9 @@
       <c r="K34" t="n">
         <v>4056880.72</v>
       </c>
+      <c r="L34" t="n">
+        <v>4046618.93</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1682,6 +1780,9 @@
       <c r="K35" t="n">
         <v>3550454.04</v>
       </c>
+      <c r="L35" t="n">
+        <v>3517807.02</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1718,6 +1819,9 @@
       </c>
       <c r="K36" t="n">
         <v>106513621.06</v>
+      </c>
+      <c r="L36" t="n">
+        <v>105534210.62</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/COME.xlsx
+++ b/backend/src/excel_handler/files/COME.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,9 @@
       <c r="L2" t="n">
         <v>2825944.54</v>
       </c>
+      <c r="M2" t="n">
+        <v>2828996.83</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -569,6 +577,9 @@
       <c r="L3" t="n">
         <v>3710970.77</v>
       </c>
+      <c r="M3" t="n">
+        <v>3973208.02</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -609,6 +620,9 @@
       <c r="L4" t="n">
         <v>563212.52</v>
       </c>
+      <c r="M4" t="n">
+        <v>563453.78</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -649,6 +663,9 @@
       <c r="L5" t="n">
         <v>2248172.81</v>
       </c>
+      <c r="M5" t="n">
+        <v>2244799.23</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -689,6 +706,9 @@
       <c r="L6" t="n">
         <v>3907403.65</v>
       </c>
+      <c r="M6" t="n">
+        <v>3909834.46</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -729,6 +749,9 @@
       <c r="L7" t="n">
         <v>17120.11</v>
       </c>
+      <c r="M7" t="n">
+        <v>17177.85</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -768,6 +791,9 @@
       </c>
       <c r="L8" t="n">
         <v>136292.65</v>
+      </c>
+      <c r="M8" t="n">
+        <v>128109.63</v>
       </c>
     </row>
     <row r="9">
@@ -807,6 +833,9 @@
       <c r="L9" t="n">
         <v>279068.06</v>
       </c>
+      <c r="M9" t="n">
+        <v>280264.67</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -845,6 +874,9 @@
       <c r="L10" t="n">
         <v>156636.38</v>
       </c>
+      <c r="M10" t="n">
+        <v>156602.04</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -883,6 +915,9 @@
       <c r="L11" t="n">
         <v>250853.42</v>
       </c>
+      <c r="M11" t="n">
+        <v>250898.01</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -921,6 +956,9 @@
       <c r="L12" t="n">
         <v>5450351.82</v>
       </c>
+      <c r="M12" t="n">
+        <v>5445248.73</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -958,6 +996,9 @@
       </c>
       <c r="L13" t="n">
         <v>4754098.57</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4740478.55</v>
       </c>
     </row>
     <row r="14">
@@ -981,6 +1022,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1003,6 +1045,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1041,6 +1084,9 @@
       <c r="L16" t="n">
         <v>1387744.29</v>
       </c>
+      <c r="M16" t="n">
+        <v>1319907.72</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1081,6 +1127,9 @@
       <c r="L17" t="n">
         <v>2786051.18</v>
       </c>
+      <c r="M17" t="n">
+        <v>2788346.13</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1121,6 +1170,9 @@
       <c r="L18" t="n">
         <v>38025630.31</v>
       </c>
+      <c r="M18" t="n">
+        <v>37970488.44</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1161,6 +1213,9 @@
       <c r="L19" t="n">
         <v>578339.01</v>
       </c>
+      <c r="M19" t="n">
+        <v>578677.61</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1201,6 +1256,9 @@
       <c r="L20" t="n">
         <v>10356.34</v>
       </c>
+      <c r="M20" t="n">
+        <v>10194.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1241,6 +1299,9 @@
       <c r="L21" t="n">
         <v>811623.13</v>
       </c>
+      <c r="M21" t="n">
+        <v>814854.75</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1281,6 +1342,9 @@
       <c r="L22" t="n">
         <v>2172240.8</v>
       </c>
+      <c r="M22" t="n">
+        <v>2173083.17</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1321,6 +1385,9 @@
       <c r="L23" t="n">
         <v>767007.64</v>
       </c>
+      <c r="M23" t="n">
+        <v>675452.55</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1361,6 +1428,9 @@
       <c r="L24" t="n">
         <v>61147.98</v>
       </c>
+      <c r="M24" t="n">
+        <v>61183.44</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1401,6 +1471,9 @@
       <c r="L25" t="n">
         <v>618004.24</v>
       </c>
+      <c r="M25" t="n">
+        <v>615600.77</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1440,6 +1513,9 @@
       </c>
       <c r="L26" t="n">
         <v>404332.67</v>
+      </c>
+      <c r="M26" t="n">
+        <v>404093.04</v>
       </c>
     </row>
     <row r="27">
@@ -1479,6 +1555,9 @@
       <c r="L27" t="n">
         <v>938375.88</v>
       </c>
+      <c r="M27" t="n">
+        <v>942278.01</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1519,6 +1598,9 @@
       <c r="L28" t="n">
         <v>1566226.74</v>
       </c>
+      <c r="M28" t="n">
+        <v>1557655.36</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1559,6 +1641,9 @@
       <c r="L29" t="n">
         <v>599995.17</v>
       </c>
+      <c r="M29" t="n">
+        <v>599125.27</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1599,6 +1684,9 @@
       <c r="L30" t="n">
         <v>1367066.87</v>
       </c>
+      <c r="M30" t="n">
+        <v>1365604.59</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1638,6 +1726,9 @@
       </c>
       <c r="L31" t="n">
         <v>939666.11</v>
+      </c>
+      <c r="M31" t="n">
+        <v>910513.23</v>
       </c>
     </row>
     <row r="32">
@@ -1663,6 +1754,7 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1703,6 +1795,9 @@
       <c r="L33" t="n">
         <v>24153658.03</v>
       </c>
+      <c r="M33" t="n">
+        <v>24181429.35</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1743,6 +1838,9 @@
       <c r="L34" t="n">
         <v>4046618.93</v>
       </c>
+      <c r="M34" t="n">
+        <v>4063774.36</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1783,6 +1881,9 @@
       <c r="L35" t="n">
         <v>3517807.02</v>
       </c>
+      <c r="M35" t="n">
+        <v>3519044.48</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1822,6 +1923,9 @@
       </c>
       <c r="L36" t="n">
         <v>105534210.62</v>
+      </c>
+      <c r="M36" t="n">
+        <v>105571334.49</v>
       </c>
     </row>
   </sheetData>
